--- a/Assets/DataBase/Unit_DataBase.xlsx
+++ b/Assets/DataBase/Unit_DataBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97025cc4d2b177a1/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\World_War_I_1914\Assets\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39AC17FA-57BC-420C-8C29-4BDB67D9D49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A227472F-8F9E-4524-93D5-2F5C213D16B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{64DC473B-2BD7-4D6B-A83B-A46619727FDD}"/>
+    <workbookView xWindow="41325" yWindow="2775" windowWidth="14400" windowHeight="7275" xr2:uid="{64DC473B-2BD7-4D6B-A83B-A46619727FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyDataBase" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,15 +70,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>나치군_저격수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_enemyPrefabPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Nichi_Sniper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>나치군_사병</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나치군_방패병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나치군_저격수</t>
+    <t>나치군_포병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Nichi_Soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Nichi_Gunner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B01A125-FDF7-4C9A-93C5-6B6740001D26}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -488,9 +504,10 @@
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,13 +532,16 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>10000000</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -541,57 +561,66 @@
       <c r="H2">
         <v>2</v>
       </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>10000010</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E3">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>10000020</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D4">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataBase/Unit_DataBase.xlsx
+++ b/Assets/DataBase/Unit_DataBase.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\World_War_I_1914\Assets\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A227472F-8F9E-4524-93D5-2F5C213D16B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF57724-DCAD-431E-8FB5-8A5F1A22C191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41325" yWindow="2775" windowWidth="14400" windowHeight="7275" xr2:uid="{64DC473B-2BD7-4D6B-A83B-A46619727FDD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{64DC473B-2BD7-4D6B-A83B-A46619727FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyDataBase" sheetId="1" r:id="rId1"/>
+    <sheet name="PlayerDataBase" sheetId="2" r:id="rId2"/>
+    <sheet name="CommanderDataBase" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +97,70 @@
   </si>
   <si>
     <t>Enemy/Nichi_Gunner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_fortName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_fortHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_fortAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_fortDef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_fortSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_fortAtkRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_fortSpawnCycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_fortPrefabPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_commanderName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_commanderHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_commanderAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_commanderDef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_commanderSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_commanderAtkRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_commanderSpawnCycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_commanderPrefabPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,12 +213,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B01A125-FDF7-4C9A-93C5-6B6740001D26}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -507,120 +576,258 @@
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>10000000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>10000010</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>150</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>130</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>10000020</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB8B1DF-DB24-45B2-82F0-380FB44DF5A2}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.08203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>10000100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>10000110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>10000120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF3ED47-397F-46F5-B5D0-C8FAA5C5B21C}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>10000000</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
+        <v>10001100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>10000010</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>150</v>
-      </c>
-      <c r="D3">
-        <v>80</v>
-      </c>
-      <c r="E3">
-        <v>130</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
+        <v>10001110</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>10000020</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>200</v>
-      </c>
-      <c r="D4">
-        <v>40</v>
-      </c>
-      <c r="E4">
-        <v>200</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
+        <v>10001120</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataBase/Unit_DataBase.xlsx
+++ b/Assets/DataBase/Unit_DataBase.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\World_War_I_1914\Assets\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF57724-DCAD-431E-8FB5-8A5F1A22C191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341F3836-E46E-4D91-AEE9-C03300922447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{64DC473B-2BD7-4D6B-A83B-A46619727FDD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{64DC473B-2BD7-4D6B-A83B-A46619727FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyDataBase" sheetId="1" r:id="rId1"/>
     <sheet name="PlayerDataBase" sheetId="2" r:id="rId2"/>
-    <sheet name="CommanderDataBase" sheetId="3" r:id="rId3"/>
+    <sheet name="StageDataBase" sheetId="4" r:id="rId3"/>
+    <sheet name="CommanderDataBase" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_fortSpawnCycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_fortPrefabPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,11 +153,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_commanderSpawnCycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_commanderPrefabPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_commanderProperties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅터프랑켄슈타인박사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일린가너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아담앤더슨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텔라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이애나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알폰소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앰버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>듀크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임모탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코모도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander/Commander_Adam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander/Commander_Alfon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander/Commander_Amber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander/Commander_Dianna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander/Commander_Duke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander/Commander_mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander/Commander_Frankenstein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander/Commander_Nino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander/Commander_Komodo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander/Commander_Hanna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander/Commander_Stella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander/Commander_Immotan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아인슈타인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나폴레옹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨즐리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제르비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빌헬름3세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비스마르크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페르디난드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>톨스토이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알렉산드로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증기로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네크로맨서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인큐버스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호문쿨루스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_StageNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +376,14 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -199,12 +400,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -213,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,6 +437,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,26 +779,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B01A125-FDF7-4C9A-93C5-6B6740001D26}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,91 +827,299 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2">
+    <row r="2" spans="1:9">
+      <c r="A2" s="2">
         <v>10000000</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>100</v>
       </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="2">
+        <v>500</v>
+      </c>
+      <c r="E2" s="2">
         <v>100</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3">
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
         <v>10000010</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>150</v>
       </c>
-      <c r="D3">
-        <v>80</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="2">
+        <v>800</v>
+      </c>
+      <c r="E3" s="2">
         <v>130</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>10</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4">
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
         <v>10000020</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>200</v>
       </c>
-      <c r="D4">
-        <v>40</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="2">
+        <v>400</v>
+      </c>
+      <c r="E4" s="2">
         <v>200</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
+        <v>10000030</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2">
+        <v>200</v>
+      </c>
+      <c r="D5" s="2">
+        <v>500</v>
+      </c>
+      <c r="E5" s="2">
+        <v>300</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <v>10000040</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2">
+        <v>200</v>
+      </c>
+      <c r="D6" s="2">
+        <v>400</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>10000050</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="2">
+        <v>200</v>
+      </c>
+      <c r="D7" s="2">
+        <v>400</v>
+      </c>
+      <c r="E7" s="2">
+        <v>200</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
+        <v>10000060</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="2">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2">
+        <v>400</v>
+      </c>
+      <c r="E8" s="2">
+        <v>200</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
+        <v>10000070</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="2">
+        <v>200</v>
+      </c>
+      <c r="D9" s="2">
+        <v>400</v>
+      </c>
+      <c r="E9" s="2">
+        <v>200</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
+        <v>10000080</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="2">
+        <v>200</v>
+      </c>
+      <c r="D10" s="2">
+        <v>400</v>
+      </c>
+      <c r="E10" s="2">
+        <v>200</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2">
+        <v>10000090</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="2">
+        <v>200</v>
+      </c>
+      <c r="D11" s="2">
+        <v>400</v>
+      </c>
+      <c r="E11" s="2">
+        <v>200</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
+        <v>10000100</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="2">
+        <v>200</v>
+      </c>
+      <c r="D12" s="2">
+        <v>400</v>
+      </c>
+      <c r="E12" s="2">
+        <v>200</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +1130,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB8B1DF-DB24-45B2-82F0-380FB44DF5A2}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
@@ -716,7 +1146,7 @@
     <col min="9" max="9" width="15.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,24 +1171,267 @@
       <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2">
         <v>10000100</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1200</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
         <v>10000110</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1300</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1250</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
         <v>10000120</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1300</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
+        <v>10000130</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1300</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <v>10000140</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1350</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1300</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>10000150</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1400</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1300</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
+        <v>10000160</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1450</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
+        <v>10000170</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
+        <v>10000180</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1380</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2">
+        <v>10000180</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1800</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F11" s="2">
+        <v>50</v>
+      </c>
+      <c r="G11" s="2">
+        <v>120</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -767,68 +1440,513 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF3ED47-397F-46F5-B5D0-C8FAA5C5B21C}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB99ADF-581D-4CAC-8C28-76099FF6E5FD}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF3ED47-397F-46F5-B5D0-C8FAA5C5B21C}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.08203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2">
+        <v>10001100</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>10001100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="C2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>80</v>
+      </c>
+      <c r="E2" s="2">
+        <v>80</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2">
+        <v>150</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2">
         <v>10001110</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2">
+        <v>80</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2">
+        <v>150</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2">
         <v>10001120</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>130</v>
+      </c>
+      <c r="E4" s="2">
+        <v>130</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2">
+        <v>150</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2">
+        <v>10001130</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2">
+        <v>70</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>150</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
+        <v>10001140</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>85</v>
+      </c>
+      <c r="E6" s="2">
+        <v>85</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>150</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
+        <v>10001150</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>95</v>
+      </c>
+      <c r="E7" s="2">
+        <v>95</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2">
+        <v>150</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <v>10001160</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>85</v>
+      </c>
+      <c r="E8" s="2">
+        <v>85</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <v>150</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <v>10001170</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>85</v>
+      </c>
+      <c r="E9" s="2">
+        <v>85</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
+        <v>150</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <v>10001180</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2">
+        <v>80</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2">
+        <v>150</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <v>10001190</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>75</v>
+      </c>
+      <c r="E11" s="2">
+        <v>90</v>
+      </c>
+      <c r="F11" s="2">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>150</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <v>10001200</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>75</v>
+      </c>
+      <c r="E12" s="2">
+        <v>90</v>
+      </c>
+      <c r="F12" s="2">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2">
+        <v>150</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <v>10001210</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2">
+        <v>100</v>
+      </c>
+      <c r="F13" s="2">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2">
+        <v>150</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <v>10001220</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>110</v>
+      </c>
+      <c r="E14" s="2">
+        <v>110</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2">
+        <v>150</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="18" spans="9:9">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="9:9">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="9:9">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="9:9">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="9:9">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="9:9">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="9:9">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="9:9">
+      <c r="I25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/DataBase/Unit_DataBase.xlsx
+++ b/Assets/DataBase/Unit_DataBase.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\World_War_I_1914\Assets\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341F3836-E46E-4D91-AEE9-C03300922447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2440FA33-0EF5-4A0E-A447-40BAD6080EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{64DC473B-2BD7-4D6B-A83B-A46619727FDD}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="3" xr2:uid="{64DC473B-2BD7-4D6B-A83B-A46619727FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyDataBase" sheetId="1" r:id="rId1"/>
-    <sheet name="PlayerDataBase" sheetId="2" r:id="rId2"/>
+    <sheet name="FortDataBase" sheetId="2" r:id="rId2"/>
     <sheet name="StageDataBase" sheetId="4" r:id="rId3"/>
-    <sheet name="CommanderDataBase" sheetId="3" r:id="rId4"/>
+    <sheet name="EnemyGroupDataBase" sheetId="5" r:id="rId4"/>
+    <sheet name="CommanderDataBase" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,7 +354,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_StageNumber</t>
+    <t>_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_enemygroupid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산악지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_groupEnemyNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_enemyId0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나치군_그룹2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나치군_그룹1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나치군_그룹3</t>
+  </si>
+  <si>
+    <t>_enemyId1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_enemyId2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B01A125-FDF7-4C9A-93C5-6B6740001D26}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1133,7 +1177,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1441,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB99ADF-581D-4CAC-8C28-76099FF6E5FD}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1460,7 +1504,7 @@
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1468,25 +1512,57 @@
         <v>78</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>28</v>
+        <v>80</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1">
+      <c r="A2" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1">
+      <c r="A3" s="2">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1">
+      <c r="A4" s="2">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -1496,11 +1572,117 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA2A688-7761-4B1B-A1C5-E91234D984E7}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10000010</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10000010</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10000020</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF3ED47-397F-46F5-B5D0-C8FAA5C5B21C}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1512,7 +1694,7 @@
     <col min="6" max="6" width="18.5" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.75" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">

--- a/Assets/DataBase/Unit_DataBase.xlsx
+++ b/Assets/DataBase/Unit_DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\World_War_I_1914\Assets\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2440FA33-0EF5-4A0E-A447-40BAD6080EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5306EABA-4ECB-4F4A-B2A3-629524D7DA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="3" xr2:uid="{64DC473B-2BD7-4D6B-A83B-A46619727FDD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{64DC473B-2BD7-4D6B-A83B-A46619727FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyDataBase" sheetId="1" r:id="rId1"/>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B01A125-FDF7-4C9A-93C5-6B6740001D26}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -888,7 +888,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -946,7 +946,7 @@
         <v>200</v>
       </c>
       <c r="F4" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -1177,7 +1177,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1233,7 +1233,7 @@
         <v>1200</v>
       </c>
       <c r="F2" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2">
         <v>30</v>
@@ -1258,7 +1258,7 @@
         <v>1250</v>
       </c>
       <c r="F3" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2">
         <v>30</v>
@@ -1283,7 +1283,7 @@
         <v>1300</v>
       </c>
       <c r="F4" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2">
         <v>30</v>
@@ -1308,7 +1308,7 @@
         <v>1200</v>
       </c>
       <c r="F5" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2">
         <v>30</v>
@@ -1333,7 +1333,7 @@
         <v>1300</v>
       </c>
       <c r="F6" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2">
         <v>30</v>
@@ -1358,7 +1358,7 @@
         <v>1300</v>
       </c>
       <c r="F7" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G7" s="2">
         <v>30</v>
@@ -1383,7 +1383,7 @@
         <v>1200</v>
       </c>
       <c r="F8" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G8" s="2">
         <v>30</v>
@@ -1408,7 +1408,7 @@
         <v>1500</v>
       </c>
       <c r="F9" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G9" s="2">
         <v>30</v>
@@ -1433,7 +1433,7 @@
         <v>1400</v>
       </c>
       <c r="F10" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G10" s="2">
         <v>30</v>
@@ -1458,7 +1458,7 @@
         <v>3000</v>
       </c>
       <c r="F11" s="2">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G11" s="2">
         <v>120</v>
@@ -1488,7 +1488,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1575,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA2A688-7761-4B1B-A1C5-E91234D984E7}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/Assets/DataBase/Unit_DataBase.xlsx
+++ b/Assets/DataBase/Unit_DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\World_War_I_1914\Assets\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5306EABA-4ECB-4F4A-B2A3-629524D7DA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37402259-6DE7-4000-BB56-D9734742E9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{64DC473B-2BD7-4D6B-A83B-A46619727FDD}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -891,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
@@ -920,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2">
         <v>3</v>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2">
         <v>5</v>
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2">
         <v>8</v>
@@ -1004,7 +1004,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2">
         <v>10</v>
@@ -1030,7 +1030,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2">
         <v>10</v>
@@ -1082,7 +1082,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2">
         <v>10</v>
@@ -1108,7 +1108,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H10" s="2">
         <v>10</v>
@@ -1134,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H11" s="2">
         <v>10</v>
@@ -1160,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H12" s="2">
         <v>10</v>
@@ -1177,7 +1177,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1233,7 +1233,7 @@
         <v>1200</v>
       </c>
       <c r="F2" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2">
         <v>30</v>

--- a/Assets/DataBase/Unit_DataBase.xlsx
+++ b/Assets/DataBase/Unit_DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\World_War_I_1914\Assets\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37402259-6DE7-4000-BB56-D9734742E9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B420A1-6CA1-464B-9C70-EC42D20D2DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{64DC473B-2BD7-4D6B-A83B-A46619727FDD}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -888,10 +888,10 @@
         <v>100</v>
       </c>
       <c r="F2" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
@@ -920,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2">
         <v>3</v>
@@ -946,10 +946,10 @@
         <v>200</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="H4" s="2">
         <v>5</v>

--- a/Assets/DataBase/Unit_DataBase.xlsx
+++ b/Assets/DataBase/Unit_DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\World_War_I_1914\Assets\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B420A1-6CA1-464B-9C70-EC42D20D2DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7B6640-ABE7-4911-B512-23D83C7DE83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{64DC473B-2BD7-4D6B-A83B-A46619727FDD}"/>
   </bookViews>
@@ -18,6 +18,8 @@
     <sheet name="StageDataBase" sheetId="4" r:id="rId3"/>
     <sheet name="EnemyGroupDataBase" sheetId="5" r:id="rId4"/>
     <sheet name="CommanderDataBase" sheetId="3" r:id="rId5"/>
+    <sheet name="BulletDataBase" sheetId="6" r:id="rId6"/>
+    <sheet name="LevelDataBase" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="95">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,6 +400,26 @@
   </si>
   <si>
     <t>_enemyId2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_bulletName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_bulletAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_bulletSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_bulletAtkRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_bulletPrefabPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -826,7 +848,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1177,7 +1199,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1488,7 +1510,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1576,7 +1598,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2134,4 +2156,62 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309DED7C-4DEE-40E1-AD2B-730F6C516CB0}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.08203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2717B0-95BF-4280-B126-80C02387D13F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/DataBase/Unit_DataBase.xlsx
+++ b/Assets/DataBase/Unit_DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\World_War_I_1914\Assets\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB7CCE0-052B-42D2-A928-4A3B6B9172F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A138D2A-E525-4BB0-B480-39783D919DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{64DC473B-2BD7-4D6B-A83B-A46619727FDD}"/>
   </bookViews>
@@ -364,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_enemygroupid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>산악지역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -536,6 +532,10 @@
   </si>
   <si>
     <t>_mountainousArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_enemyGroupId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1084,7 +1084,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>9</v>
@@ -1614,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="10"/>
@@ -1682,7 +1682,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
@@ -2006,16 +2006,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2283,7 +2283,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>78</v>
@@ -2312,10 +2312,10 @@
         <v>79</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
@@ -2326,13 +2326,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="E2" s="9">
         <v>1001</v>
@@ -2346,13 +2346,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="E3" s="9">
         <v>1002</v>
@@ -2366,13 +2366,13 @@
         <v>13</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="E4" s="9">
         <v>1003</v>
@@ -2577,7 +2577,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2597,16 +2597,16 @@
         <v>78</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>84</v>
-      </c>
       <c r="E1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -2625,7 +2625,7 @@
         <v>1001</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -2656,7 +2656,7 @@
         <v>1002</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="9">
         <v>2</v>
@@ -2687,7 +2687,7 @@
         <v>1003</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="9">
         <v>3</v>
@@ -3494,22 +3494,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="D1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -3527,10 +3527,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="9">
         <v>30</v>
@@ -3542,7 +3542,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -3560,10 +3560,10 @@
         <v>102</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="9">
         <v>40</v>
@@ -3575,7 +3575,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -3593,10 +3593,10 @@
         <v>103</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="9">
         <v>10</v>
@@ -3608,7 +3608,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -3626,10 +3626,10 @@
         <v>201</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="9">
         <v>20</v>
@@ -3641,7 +3641,7 @@
         <v>30</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -3659,10 +3659,10 @@
         <v>202</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="9">
         <v>50</v>
@@ -3674,7 +3674,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -3692,10 +3692,10 @@
         <v>203</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" s="9">
         <v>100</v>
@@ -3707,7 +3707,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>

--- a/Assets/DataBase/Unit_DataBase.xlsx
+++ b/Assets/DataBase/Unit_DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\World_War_I_1914\Assets\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A138D2A-E525-4BB0-B480-39783D919DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FA16EC-88BA-443A-A43F-F04211017F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{64DC473B-2BD7-4D6B-A83B-A46619727FDD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{64DC473B-2BD7-4D6B-A83B-A46619727FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyDataBase" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1040,11 +1040,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B01A125-FDF7-4C9A-93C5-6B6740001D26}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="16.58203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -1058,7 +1058,7 @@
     <col min="10" max="10" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="21">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="21">
       <c r="A2" s="9">
         <v>10000000</v>
       </c>
@@ -1105,13 +1105,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="9">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D2" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E2" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" s="9">
         <v>5</v>
@@ -1136,7 +1136,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="21">
       <c r="A3" s="9">
         <v>10000010</v>
       </c>
@@ -1144,13 +1144,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="9">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="D3" s="9">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E3" s="9">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F3" s="9">
         <v>2</v>
@@ -1175,7 +1175,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="21">
       <c r="A4" s="9">
         <v>10000020</v>
       </c>
@@ -1183,13 +1183,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="9">
-        <v>3200</v>
+        <v>200</v>
       </c>
       <c r="D4" s="9">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E4" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <v>2</v>
@@ -1214,7 +1214,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="21">
       <c r="A5" s="9">
         <v>10000030</v>
       </c>
@@ -1251,7 +1251,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="21">
       <c r="A6" s="9">
         <v>10000040</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="21">
       <c r="A7" s="9">
         <v>10000050</v>
       </c>
@@ -1325,7 +1325,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="21">
       <c r="A8" s="9">
         <v>10000060</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="21">
       <c r="A9" s="9">
         <v>10000070</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="21">
       <c r="A10" s="9">
         <v>10000080</v>
       </c>
@@ -1436,7 +1436,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" ht="21">
       <c r="A11" s="9">
         <v>10000090</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" ht="21">
       <c r="A12" s="9">
         <v>10000100</v>
       </c>
@@ -1510,7 +1510,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" ht="21">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1540,10 +1540,10 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="16.58203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -1556,7 +1556,7 @@
     <col min="9" max="9" width="15.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="21">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
     </row>
-    <row r="2" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="21">
       <c r="A2" s="9">
         <v>10000100</v>
       </c>
@@ -1599,13 +1599,13 @@
         <v>60</v>
       </c>
       <c r="C2" s="9">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D2" s="9">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E2" s="9">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F2" s="9">
         <v>15</v>
@@ -1626,7 +1626,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="21">
       <c r="A3" s="9">
         <v>10000110</v>
       </c>
@@ -1659,7 +1659,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="21">
       <c r="A4" s="9">
         <v>10000120</v>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="21">
       <c r="A5" s="9">
         <v>10000130</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="21">
       <c r="A6" s="9">
         <v>10000140</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="21">
       <c r="A7" s="9">
         <v>10000150</v>
       </c>
@@ -1793,7 +1793,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="21">
       <c r="A8" s="9">
         <v>10000160</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="21">
       <c r="A9" s="9">
         <v>10000170</v>
       </c>
@@ -1859,7 +1859,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="21">
       <c r="A10" s="9">
         <v>10000180</v>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" ht="21">
       <c r="A11" s="9">
         <v>10000180</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" ht="21">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1944,7 +1944,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" ht="21">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1963,7 +1963,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1974,7 +1974,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="8:8">
       <c r="H24" s="4"/>
     </row>
   </sheetData>
@@ -1991,7 +1991,7 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
@@ -2001,7 +2001,7 @@
     <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="21">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2030,7 +2030,7 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="21">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2049,7 +2049,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="21">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -2068,7 +2068,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="21">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -2087,7 +2087,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="21">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2106,7 +2106,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="21">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2125,7 +2125,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="21">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2144,7 +2144,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="21">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2163,7 +2163,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="21">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2182,7 +2182,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="21">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2201,7 +2201,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" ht="21">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2220,7 +2220,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" ht="21">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2239,7 +2239,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" ht="21">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2258,7 +2258,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2269,7 +2269,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="8:8">
       <c r="H24" s="4"/>
     </row>
   </sheetData>
@@ -2282,11 +2282,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB99ADF-581D-4CAC-8C28-76099FF6E5FD}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
@@ -2298,7 +2298,7 @@
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="21">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2321,7 +2321,7 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="21">
       <c r="A2" s="9">
         <v>11</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" s="9" customFormat="1" ht="21">
       <c r="A3" s="9">
         <v>12</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" s="9" customFormat="1" ht="21">
       <c r="A4" s="9">
         <v>13</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="21">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2400,7 +2400,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="21">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2419,7 +2419,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="21">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2438,7 +2438,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="21">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2457,7 +2457,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="21">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2476,7 +2476,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="21">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2495,7 +2495,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" ht="21">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2514,7 +2514,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" ht="21">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2533,7 +2533,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" ht="21">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2552,7 +2552,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2563,7 +2563,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="8:8">
       <c r="H24" s="4"/>
     </row>
   </sheetData>
@@ -2580,7 +2580,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.58203125" bestFit="1" customWidth="1"/>
@@ -2589,7 +2589,7 @@
     <col min="11" max="11" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2620,7 +2620,7 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
     </row>
-    <row r="2" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="21">
       <c r="A2" s="9">
         <v>1001</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="21">
       <c r="A3" s="9">
         <v>1002</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="21">
       <c r="A4" s="9">
         <v>1003</v>
       </c>
@@ -2713,7 +2713,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="21">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2732,7 +2732,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="21">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2751,7 +2751,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="21">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2770,7 +2770,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="21">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2789,7 +2789,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="21">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2808,7 +2808,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="21">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2827,7 +2827,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" ht="21">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2846,7 +2846,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" ht="21">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2865,7 +2865,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" ht="21">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2884,7 +2884,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2895,7 +2895,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="8:8">
       <c r="H24" s="4"/>
     </row>
   </sheetData>
@@ -2912,7 +2912,7 @@
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -2925,7 +2925,7 @@
     <col min="9" max="9" width="56.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="21">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="21">
       <c r="A2" s="9">
         <v>10001100</v>
       </c>
@@ -2999,7 +2999,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="21">
       <c r="A3" s="9">
         <v>10001110</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="21">
       <c r="A4" s="9">
         <v>10001120</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="21">
       <c r="A5" s="9">
         <v>10001130</v>
       </c>
@@ -3110,7 +3110,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="21">
       <c r="A6" s="9">
         <v>10001140</v>
       </c>
@@ -3147,7 +3147,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="21">
       <c r="A7" s="9">
         <v>10001150</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="21">
       <c r="A8" s="9">
         <v>10001160</v>
       </c>
@@ -3221,7 +3221,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="21">
       <c r="A9" s="9">
         <v>10001170</v>
       </c>
@@ -3258,7 +3258,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="21">
       <c r="A10" s="9">
         <v>10001180</v>
       </c>
@@ -3295,7 +3295,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" ht="21">
       <c r="A11" s="9">
         <v>10001190</v>
       </c>
@@ -3332,7 +3332,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" ht="21">
       <c r="A12" s="9">
         <v>10001200</v>
       </c>
@@ -3369,7 +3369,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" ht="21">
       <c r="A13" s="9">
         <v>10001210</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" ht="21">
       <c r="A14" s="15">
         <v>10001220</v>
       </c>
@@ -3435,32 +3435,32 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17">
       <c r="J15" s="1"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="8:9">
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="8:9">
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="8:9">
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="8:9">
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="8:9">
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="8:9">
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="8:9">
       <c r="H24" s="5"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="8:9">
       <c r="I25" s="1"/>
     </row>
   </sheetData>
@@ -3474,10 +3474,10 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="7.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -3489,7 +3489,7 @@
     <col min="8" max="8" width="15.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="21">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3522,7 +3522,7 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="21">
       <c r="A2" s="9">
         <v>101</v>
       </c>
@@ -3555,7 +3555,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="21">
       <c r="A3" s="9">
         <v>102</v>
       </c>
@@ -3588,7 +3588,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="21">
       <c r="A4" s="9">
         <v>103</v>
       </c>
@@ -3621,7 +3621,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="21">
       <c r="A5" s="9">
         <v>201</v>
       </c>
@@ -3632,13 +3632,13 @@
         <v>104</v>
       </c>
       <c r="D5" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E5" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F5" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>110</v>
@@ -3654,7 +3654,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="21">
       <c r="A6" s="9">
         <v>202</v>
       </c>
@@ -3687,7 +3687,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="21">
       <c r="A7" s="9">
         <v>203</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="21">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -3739,7 +3739,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="21">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -3758,7 +3758,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="21">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3777,7 +3777,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" ht="21">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3796,7 +3796,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" ht="21">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3815,7 +3815,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="22" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" ht="21">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3834,7 +3834,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3845,7 +3845,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="8:8">
       <c r="H24" s="4"/>
     </row>
   </sheetData>

--- a/Assets/DataBase/Unit_DataBase.xlsx
+++ b/Assets/DataBase/Unit_DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\World_War_I_1914\Assets\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FA16EC-88BA-443A-A43F-F04211017F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DE41B7-708F-48E2-8358-BC063485089C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{64DC473B-2BD7-4D6B-A83B-A46619727FDD}"/>
   </bookViews>
@@ -543,7 +543,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1041,10 +1041,10 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.58203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -1058,7 +1058,7 @@
     <col min="10" max="10" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="21">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17" ht="21">
+    <row r="2" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
         <v>10000000</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>200</v>
       </c>
       <c r="D2" s="9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
@@ -1136,7 +1136,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:17" ht="21">
+    <row r="3" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
         <v>10000010</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>200</v>
       </c>
       <c r="D3" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E3" s="9">
         <v>0</v>
@@ -1175,7 +1175,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="21">
+    <row r="4" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>10000020</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>200</v>
       </c>
       <c r="D4" s="9">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
@@ -1214,7 +1214,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="21">
+    <row r="5" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
         <v>10000030</v>
       </c>
@@ -1251,7 +1251,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="21">
+    <row r="6" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
         <v>10000040</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="21">
+    <row r="7" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
         <v>10000050</v>
       </c>
@@ -1325,7 +1325,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="21">
+    <row r="8" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A8" s="9">
         <v>10000060</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="21">
+    <row r="9" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
         <v>10000070</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="21">
+    <row r="10" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
         <v>10000080</v>
       </c>
@@ -1436,7 +1436,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="21">
+    <row r="11" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A11" s="9">
         <v>10000090</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="21">
+    <row r="12" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A12" s="9">
         <v>10000100</v>
       </c>
@@ -1510,7 +1510,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="21">
+    <row r="13" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1540,10 +1540,10 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.58203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -1556,7 +1556,7 @@
     <col min="9" max="9" width="15.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
     </row>
-    <row r="2" spans="1:17" ht="21">
+    <row r="2" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
         <v>10000100</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>200</v>
       </c>
       <c r="D2" s="9">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
@@ -1626,7 +1626,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:17" ht="21">
+    <row r="3" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
         <v>10000110</v>
       </c>
@@ -1659,7 +1659,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="21">
+    <row r="4" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>10000120</v>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="21">
+    <row r="5" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
         <v>10000130</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="21">
+    <row r="6" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
         <v>10000140</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="21">
+    <row r="7" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
         <v>10000150</v>
       </c>
@@ -1793,7 +1793,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="21">
+    <row r="8" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A8" s="9">
         <v>10000160</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="21">
+    <row r="9" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
         <v>10000170</v>
       </c>
@@ -1859,7 +1859,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="21">
+    <row r="10" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
         <v>10000180</v>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="21">
+    <row r="11" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A11" s="9">
         <v>10000180</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="21">
+    <row r="12" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1944,7 +1944,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="21">
+    <row r="13" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1963,7 +1963,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1974,7 +1974,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="24" spans="8:8">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H24" s="4"/>
     </row>
   </sheetData>
@@ -1988,10 +1988,10 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
@@ -2001,7 +2001,7 @@
     <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="21">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2030,7 +2030,7 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:17" ht="21">
+    <row r="2" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2049,7 +2049,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:17" ht="21">
+    <row r="3" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -2068,7 +2068,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="21">
+    <row r="4" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -2087,7 +2087,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="21">
+    <row r="5" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2106,7 +2106,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="21">
+    <row r="6" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2125,7 +2125,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="21">
+    <row r="7" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2144,7 +2144,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="21">
+    <row r="8" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2163,7 +2163,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="21">
+    <row r="9" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2182,7 +2182,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="21">
+    <row r="10" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2201,7 +2201,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="21">
+    <row r="11" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2220,7 +2220,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="21">
+    <row r="12" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2239,7 +2239,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="21">
+    <row r="13" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2258,7 +2258,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2269,7 +2269,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="24" spans="8:8">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H24" s="4"/>
     </row>
   </sheetData>
@@ -2286,7 +2286,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
@@ -2298,7 +2298,7 @@
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="21">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="22" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2321,7 +2321,7 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="21">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
         <v>11</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="9" customFormat="1" ht="21">
+    <row r="3" spans="1:17" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
         <v>12</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="9" customFormat="1" ht="21">
+    <row r="4" spans="1:17" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>13</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21">
+    <row r="5" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2400,7 +2400,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="21">
+    <row r="6" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2419,7 +2419,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="21">
+    <row r="7" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2438,7 +2438,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="21">
+    <row r="8" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2457,7 +2457,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="21">
+    <row r="9" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2476,7 +2476,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="21">
+    <row r="10" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2495,7 +2495,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="21">
+    <row r="11" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2514,7 +2514,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="21">
+    <row r="12" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2533,7 +2533,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="21">
+    <row r="13" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2552,7 +2552,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2563,7 +2563,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="24" spans="8:8">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H24" s="4"/>
     </row>
   </sheetData>
@@ -2580,7 +2580,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.58203125" bestFit="1" customWidth="1"/>
@@ -2589,7 +2589,7 @@
     <col min="11" max="11" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2620,7 +2620,7 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
     </row>
-    <row r="2" spans="1:17" ht="21">
+    <row r="2" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
         <v>1001</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:17" ht="21">
+    <row r="3" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
         <v>1002</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="21">
+    <row r="4" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>1003</v>
       </c>
@@ -2713,7 +2713,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="21">
+    <row r="5" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2732,7 +2732,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="21">
+    <row r="6" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2751,7 +2751,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="21">
+    <row r="7" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2770,7 +2770,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="21">
+    <row r="8" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2789,7 +2789,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="21">
+    <row r="9" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2808,7 +2808,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="21">
+    <row r="10" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2827,7 +2827,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="21">
+    <row r="11" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2846,7 +2846,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="21">
+    <row r="12" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2865,7 +2865,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="21">
+    <row r="13" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2884,7 +2884,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2895,7 +2895,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="24" spans="8:8">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H24" s="4"/>
     </row>
   </sheetData>
@@ -2912,7 +2912,7 @@
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -2925,7 +2925,7 @@
     <col min="9" max="9" width="56.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21">
+    <row r="1" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:17" ht="21">
+    <row r="2" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
         <v>10001100</v>
       </c>
@@ -2999,7 +2999,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:17" ht="21">
+    <row r="3" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
         <v>10001110</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="21">
+    <row r="4" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>10001120</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="21">
+    <row r="5" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
         <v>10001130</v>
       </c>
@@ -3110,7 +3110,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="21">
+    <row r="6" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
         <v>10001140</v>
       </c>
@@ -3147,7 +3147,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="21">
+    <row r="7" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
         <v>10001150</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="21">
+    <row r="8" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A8" s="9">
         <v>10001160</v>
       </c>
@@ -3221,7 +3221,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="21">
+    <row r="9" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
         <v>10001170</v>
       </c>
@@ -3258,7 +3258,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="21">
+    <row r="10" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
         <v>10001180</v>
       </c>
@@ -3295,7 +3295,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="21">
+    <row r="11" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A11" s="9">
         <v>10001190</v>
       </c>
@@ -3332,7 +3332,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="21">
+    <row r="12" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A12" s="9">
         <v>10001200</v>
       </c>
@@ -3369,7 +3369,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="21">
+    <row r="13" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A13" s="9">
         <v>10001210</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17" ht="21">
+    <row r="14" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A14" s="15">
         <v>10001220</v>
       </c>
@@ -3435,32 +3435,32 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="J15" s="1"/>
     </row>
-    <row r="18" spans="8:9">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.45">
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="8:9">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.45">
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="8:9">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.45">
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="8:9">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.45">
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="8:9">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.45">
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="8:9">
+    <row r="23" spans="8:9" x14ac:dyDescent="0.45">
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="8:9">
+    <row r="24" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H24" s="5"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="8:9">
+    <row r="25" spans="8:9" x14ac:dyDescent="0.45">
       <c r="I25" s="1"/>
     </row>
   </sheetData>
@@ -3474,10 +3474,10 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -3489,7 +3489,7 @@
     <col min="8" max="8" width="15.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21">
+    <row r="1" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3522,7 +3522,7 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:17" ht="21">
+    <row r="2" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
         <v>101</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>101</v>
       </c>
       <c r="D2" s="9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E2" s="9">
         <v>5</v>
@@ -3555,7 +3555,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:17" ht="21">
+    <row r="3" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
         <v>102</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>102</v>
       </c>
       <c r="D3" s="9">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E3" s="9">
         <v>10</v>
@@ -3588,7 +3588,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="21">
+    <row r="4" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>103</v>
       </c>
@@ -3621,7 +3621,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="21">
+    <row r="5" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
         <v>201</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>104</v>
       </c>
       <c r="D5" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E5" s="9">
         <v>50</v>
@@ -3654,7 +3654,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="21">
+    <row r="6" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
         <v>202</v>
       </c>
@@ -3687,7 +3687,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="21">
+    <row r="7" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
         <v>203</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="21">
+    <row r="8" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -3739,7 +3739,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="21">
+    <row r="9" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -3758,7 +3758,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="21">
+    <row r="10" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3777,7 +3777,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="21">
+    <row r="11" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3796,7 +3796,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="21">
+    <row r="12" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3815,7 +3815,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="21">
+    <row r="13" spans="1:17" ht="22" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3834,7 +3834,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3845,7 +3845,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="24" spans="8:8">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H24" s="4"/>
     </row>
   </sheetData>
